--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/15/seed1/result_data_KNN.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.476000000000001</v>
+        <v>-7.81</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.834000000000001</v>
+        <v>-8.072000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.85</v>
+        <v>-8.029</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.482000000000001</v>
+        <v>-8.451000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -718,7 +718,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.982000000000001</v>
+        <v>-7.934</v>
       </c>
     </row>
     <row r="21">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.102</v>
+        <v>-7.834000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -844,7 +844,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.874000000000001</v>
+        <v>-7.56</v>
       </c>
     </row>
     <row r="30">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.664</v>
+        <v>-7.276999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -998,7 +998,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.539999999999999</v>
+        <v>-7.992</v>
       </c>
     </row>
     <row r="41">
@@ -1082,7 +1082,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.75</v>
+        <v>-8.022</v>
       </c>
     </row>
     <row r="47">
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.507999999999999</v>
+        <v>-8.241000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.94</v>
+        <v>-7.904000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.686</v>
+        <v>-7.920999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-7.819999999999999</v>
+        <v>-8.058</v>
       </c>
     </row>
     <row r="60">
@@ -1306,7 +1306,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-7.842000000000001</v>
+        <v>-7.840999999999999</v>
       </c>
     </row>
     <row r="63">
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.545999999999999</v>
+        <v>-7.419</v>
       </c>
     </row>
     <row r="67">
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.581999999999999</v>
+        <v>-8.050000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1474,7 +1474,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.156000000000001</v>
+        <v>-8.040999999999999</v>
       </c>
     </row>
     <row r="75">
@@ -1726,7 +1726,7 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.140000000000001</v>
+        <v>-7.068</v>
       </c>
     </row>
     <row r="93">
@@ -1838,7 +1838,7 @@
         <v>-13.95</v>
       </c>
       <c r="D100" t="n">
-        <v>-7.891999999999999</v>
+        <v>-7.937</v>
       </c>
     </row>
     <row r="101">
